--- a/Projekt_Zeitplan.xlsx
+++ b/Projekt_Zeitplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurofrehner/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\StudiumMobileRobotics\7.Semester\ProjektarbeitMR\Github\Grosser-Segler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC6C140-BB57-4E4D-994D-F080FCFB5C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C8CB6-0F33-4C56-8B3F-DA0E76946763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="37460" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -142,12 +142,15 @@
   <si>
     <t>Projektarbeit: Grosser Segler</t>
   </si>
+  <si>
+    <t>hallo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,28 +550,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="74.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="22.8">
       <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -605,7 +608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -622,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -642,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -659,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -676,7 +679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -696,7 +699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -716,7 +719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -736,7 +739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -756,7 +759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -773,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -793,7 +796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -810,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -824,7 +827,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -838,7 +841,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -855,7 +858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -872,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -892,7 +895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -909,7 +912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -924,6 +927,11 @@
       </c>
       <c r="E21" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
